--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/71.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/71.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1577739408724424</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.560973536683187</v>
+        <v>-1.558902914529116</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02245900597243909</v>
+        <v>0.01751815995067623</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1110776282404687</v>
+        <v>-0.1198338966122644</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1468419181211896</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.55330412851465</v>
+        <v>-1.555186655383725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03519754272112555</v>
+        <v>0.02937524599143431</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06751507503935082</v>
+        <v>-0.07759981554952433</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.140692450525795</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.641314620672617</v>
+        <v>-1.63859471563101</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02628679219512191</v>
+        <v>-0.0317691007946122</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.07391975884392332</v>
+        <v>-0.08431458112099306</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1392777554119873</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.791514608313175</v>
+        <v>-1.786092899449854</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09529179047294406</v>
+        <v>-0.09625981223254398</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07909985577212389</v>
+        <v>-0.08926644527660503</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1385874917893754</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.876998012771894</v>
+        <v>-1.861386104117273</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1343447788915354</v>
+        <v>-0.1323882731237587</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07947132428475084</v>
+        <v>-0.08890442087870587</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1358748266271575</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.696510749199268</v>
+        <v>-1.681604788120551</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1664374547557352</v>
+        <v>-0.1563668804176533</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0869306009005948</v>
+        <v>-0.09344704006277965</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1299914084158603</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.335386690237494</v>
+        <v>-1.331009343061157</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1722424372750921</v>
+        <v>-0.1645234475042335</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03594339950430163</v>
+        <v>-0.04443523266371884</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1215922604559516</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7870511580168982</v>
+        <v>-0.7938603647356449</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1287821953168588</v>
+        <v>-0.1160121781857463</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05421933552172391</v>
+        <v>-0.05941517264113749</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1098654393417049</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2233886146026366</v>
+        <v>-0.237529602388402</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1593339064613052</v>
+        <v>-0.138750458412056</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03653545897423114</v>
+        <v>0.02648692090384755</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.09439135625187178</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3826465235570394</v>
+        <v>0.3596768625198984</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1706825843258831</v>
+        <v>-0.1545347221604594</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1074072439299159</v>
+        <v>0.09876273091573252</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.07389990553679607</v>
       </c>
       <c r="E12" t="n">
-        <v>1.063526270934563</v>
+        <v>1.033243717059859</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2899208288408954</v>
+        <v>-0.2608581397851995</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1599385580842051</v>
+        <v>0.1558162020055186</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.04682405279439212</v>
       </c>
       <c r="E13" t="n">
-        <v>1.787921350939566</v>
+        <v>1.74474915448053</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.460366637429183</v>
+        <v>-0.427885178842022</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2703402592522353</v>
+        <v>0.2648752648630793</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.01137870568898581</v>
       </c>
       <c r="E14" t="n">
-        <v>2.465911199210381</v>
+        <v>2.418103516439115</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7057609404973241</v>
+        <v>-0.6720580430720338</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3808568638161205</v>
+        <v>0.3749070715376039</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.03454502475805951</v>
       </c>
       <c r="E15" t="n">
-        <v>3.190622657058765</v>
+        <v>3.135851513694865</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.012407410661321</v>
+        <v>-0.9749622827751382</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5307963512921027</v>
+        <v>0.5225894155936409</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.0917115720655665</v>
       </c>
       <c r="E16" t="n">
-        <v>3.873940560055184</v>
+        <v>3.818006216560642</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.250266884195796</v>
+        <v>-1.211989887204006</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6923883023230739</v>
+        <v>0.6838649887812307</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1605940699072237</v>
       </c>
       <c r="E17" t="n">
-        <v>4.550169080929264</v>
+        <v>4.490526348384939</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.565579116632113</v>
+        <v>-1.519085739827134</v>
       </c>
       <c r="G17" t="n">
-        <v>0.862774298184752</v>
+        <v>0.8549136466929764</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2381516694269182</v>
       </c>
       <c r="E18" t="n">
-        <v>5.248359890602853</v>
+        <v>5.178715840561782</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.770708436558261</v>
+        <v>-1.726192027769635</v>
       </c>
       <c r="G18" t="n">
-        <v>1.019116895446186</v>
+        <v>1.011896869736779</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3188935055164107</v>
       </c>
       <c r="E19" t="n">
-        <v>5.722923507636767</v>
+        <v>5.656384997322023</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.020505271108681</v>
+        <v>-1.968759392495921</v>
       </c>
       <c r="G19" t="n">
-        <v>1.185284520062778</v>
+        <v>1.177872464020573</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3979257425775446</v>
       </c>
       <c r="E20" t="n">
-        <v>6.177460879390374</v>
+        <v>6.103036533277913</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.170093752320613</v>
+        <v>-2.117800902063201</v>
       </c>
       <c r="G20" t="n">
-        <v>1.312769050754284</v>
+        <v>1.305191722704343</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.472044486043572</v>
       </c>
       <c r="E21" t="n">
-        <v>6.45860902679886</v>
+        <v>6.387705761460749</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.360376923894653</v>
+        <v>-2.310120067370643</v>
       </c>
       <c r="G21" t="n">
-        <v>1.425155590034275</v>
+        <v>1.418425084271593</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5387843986912354</v>
       </c>
       <c r="E22" t="n">
-        <v>6.79206340362729</v>
+        <v>6.719877312705318</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.449938611896662</v>
+        <v>-2.402216713167507</v>
       </c>
       <c r="G22" t="n">
-        <v>1.516089822710058</v>
+        <v>1.510417057796891</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5966651203589031</v>
       </c>
       <c r="E23" t="n">
-        <v>6.916879971908191</v>
+        <v>6.84331346621684</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.535680942500835</v>
+        <v>-2.488334447332111</v>
       </c>
       <c r="G23" t="n">
-        <v>1.614256673248218</v>
+        <v>1.609314253207334</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6447668217568582</v>
       </c>
       <c r="E24" t="n">
-        <v>7.036566811872774</v>
+        <v>6.967544499384617</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.57872013434412</v>
+        <v>-2.534162801058341</v>
       </c>
       <c r="G24" t="n">
-        <v>1.62103597360366</v>
+        <v>1.614483332001685</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6814826480846252</v>
       </c>
       <c r="E25" t="n">
-        <v>7.120661931466506</v>
+        <v>7.049648484789904</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.593851967166745</v>
+        <v>-2.546253628938612</v>
       </c>
       <c r="G25" t="n">
-        <v>1.666364576258877</v>
+        <v>1.659250009830598</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7058755177338302</v>
       </c>
       <c r="E26" t="n">
-        <v>7.085436957550918</v>
+        <v>7.024132060814499</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.636692832600746</v>
+        <v>-2.581342450200208</v>
       </c>
       <c r="G26" t="n">
-        <v>1.668708290730494</v>
+        <v>1.669001058287056</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7188899951710128</v>
       </c>
       <c r="E27" t="n">
-        <v>7.003175570233501</v>
+        <v>6.947030308176706</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.518761023956413</v>
+        <v>-2.470124620117783</v>
       </c>
       <c r="G27" t="n">
-        <v>1.638049546285799</v>
+        <v>1.635093538375997</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7218880402066407</v>
       </c>
       <c r="E28" t="n">
-        <v>6.848373937691822</v>
+        <v>6.802451929827874</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.421852601705733</v>
+        <v>-2.382213291164458</v>
       </c>
       <c r="G28" t="n">
-        <v>1.561283059720844</v>
+        <v>1.565307826614009</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7162323956355112</v>
       </c>
       <c r="E29" t="n">
-        <v>6.665790867659184</v>
+        <v>6.628340230706077</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.343765513098006</v>
+        <v>-2.301365373017969</v>
       </c>
       <c r="G29" t="n">
-        <v>1.500780912736288</v>
+        <v>1.50791121935578</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7042024247173908</v>
       </c>
       <c r="E30" t="n">
-        <v>6.448870570495372</v>
+        <v>6.4232014666652</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.290374784503487</v>
+        <v>-2.250393911812889</v>
       </c>
       <c r="G30" t="n">
-        <v>1.435857346039998</v>
+        <v>1.441586775641533</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.687608424115391</v>
       </c>
       <c r="E31" t="n">
-        <v>6.141707035050028</v>
+        <v>6.124868178490353</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.068046944648447</v>
+        <v>-2.039315586617784</v>
       </c>
       <c r="G31" t="n">
-        <v>1.356396138739375</v>
+        <v>1.362114550207061</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6671337250851294</v>
       </c>
       <c r="E32" t="n">
-        <v>5.855004174162472</v>
+        <v>5.84737805151977</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.928355108661693</v>
+        <v>-1.904605521149947</v>
       </c>
       <c r="G32" t="n">
-        <v>1.256682027404977</v>
+        <v>1.267970892542946</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6440210943856484</v>
       </c>
       <c r="E33" t="n">
-        <v>5.468563591653697</v>
+        <v>5.470663333161513</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.849499898722771</v>
+        <v>-1.829723922482749</v>
       </c>
       <c r="G33" t="n">
-        <v>1.173389657563108</v>
+        <v>1.186323372682836</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6197880811617767</v>
       </c>
       <c r="E34" t="n">
-        <v>5.131182037117623</v>
+        <v>5.143330316695821</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.770554969693935</v>
+        <v>-1.750017168199203</v>
       </c>
       <c r="G34" t="n">
-        <v>1.04878243382534</v>
+        <v>1.064039401168107</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5949560112177813</v>
       </c>
       <c r="E35" t="n">
-        <v>4.705686892171136</v>
+        <v>4.724272909955454</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.714185409912354</v>
+        <v>-1.696084977026957</v>
       </c>
       <c r="G35" t="n">
-        <v>0.975184447751562</v>
+        <v>0.9909498232705097</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5698955935917429</v>
       </c>
       <c r="E36" t="n">
-        <v>4.227732837949939</v>
+        <v>4.249514114550498</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.617554015027023</v>
+        <v>-1.60502639684059</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9004201135089006</v>
+        <v>0.9190564999051007</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5459391937595092</v>
       </c>
       <c r="E37" t="n">
-        <v>3.828103549223786</v>
+        <v>3.858671000559446</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.581603418296515</v>
+        <v>-1.570388532057247</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8251505191283017</v>
+        <v>0.8428519381664493</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5234755177801582</v>
       </c>
       <c r="E38" t="n">
-        <v>3.458174427297456</v>
+        <v>3.496745765864929</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.490600715788955</v>
+        <v>-1.479390551607052</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7239741440302149</v>
+        <v>0.7439500206986418</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5021046235715896</v>
       </c>
       <c r="E39" t="n">
-        <v>3.010463576472931</v>
+        <v>3.05482573138767</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.460978462935637</v>
+        <v>-1.451633511412475</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6665114279688906</v>
+        <v>0.684703940972884</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4830301359031474</v>
       </c>
       <c r="E40" t="n">
-        <v>2.578588932027812</v>
+        <v>2.629118093859807</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.4505749835534</v>
+        <v>-1.443897994440842</v>
       </c>
       <c r="G40" t="n">
-        <v>0.592227169558226</v>
+        <v>0.6114144626468814</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4656675401916678</v>
       </c>
       <c r="E41" t="n">
-        <v>2.23198834749828</v>
+        <v>2.281502266997035</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.409779555967529</v>
+        <v>-1.405794926561956</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5377125913110979</v>
+        <v>0.5576160630999452</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4496409867010818</v>
       </c>
       <c r="E42" t="n">
-        <v>1.853597298775837</v>
+        <v>1.903564535781527</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.376406415548151</v>
+        <v>-1.373454342686151</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4757591986967029</v>
+        <v>0.4948410325042311</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4353966704724136</v>
       </c>
       <c r="E43" t="n">
-        <v>1.616897877333761</v>
+        <v>1.66636772429712</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.360535580748076</v>
+        <v>-1.355673435682378</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3980388565442388</v>
+        <v>0.4177707602488642</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4225537070234712</v>
       </c>
       <c r="E44" t="n">
-        <v>1.417376787536807</v>
+        <v>1.461701165992634</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.357474113557146</v>
+        <v>-1.353687023551297</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3388053689714513</v>
+        <v>0.3559385671068093</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4099743286408106</v>
       </c>
       <c r="E45" t="n">
-        <v>1.192462047255909</v>
+        <v>1.237615933788662</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.285396629954545</v>
+        <v>-1.281925917792077</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2719426107177194</v>
+        <v>0.2921168137954303</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3971787904601732</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9671443580799581</v>
+        <v>1.012759432215252</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.227826093583412</v>
+        <v>-1.223311019733961</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2432120396966179</v>
+        <v>0.2607151323254816</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3837750306006189</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8404011903945841</v>
+        <v>0.886094965485943</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.167049280262189</v>
+        <v>-1.165805805156361</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1631102066136259</v>
+        <v>0.182039360566388</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3689756826946142</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6954639356860954</v>
+        <v>0.7341548997067877</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.093038901178631</v>
+        <v>-1.091693901839479</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1165554430629155</v>
+        <v>0.1316943589715855</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3524224000088977</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5248733173386483</v>
+        <v>0.5653555151193806</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.0422964597557</v>
+        <v>-1.038257526690442</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06730281073829568</v>
+        <v>0.08317207151924921</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3351433307736246</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4500948169238951</v>
+        <v>0.4891509533807291</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9935774199132007</v>
+        <v>-0.9870129731678162</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06526288195709</v>
+        <v>0.07700978665935702</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3176763495268771</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3326430841115591</v>
+        <v>0.3709735977534735</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9767668956977094</v>
+        <v>-0.9696720045084465</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06647330266137022</v>
+        <v>0.07524373720525765</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3008036613590003</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2223562863393838</v>
+        <v>0.2514803621408105</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9890694291497956</v>
+        <v>-0.9791531086856012</v>
       </c>
       <c r="G52" t="n">
-        <v>0.002347763659580201</v>
+        <v>0.0130983142580639</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2861355950633485</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1460808937402738</v>
+        <v>0.1784647631419141</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.93375918423685</v>
+        <v>-0.930896043455204</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0169861414876766</v>
+        <v>0.02555352756491624</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2743264018443292</v>
       </c>
       <c r="E54" t="n">
-        <v>0.07903869730671362</v>
+        <v>0.09968195808257213</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9162718317991994</v>
+        <v>-0.9089668090572429</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01798384133026078</v>
+        <v>-0.01062530193818007</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2651958766794401</v>
       </c>
       <c r="E55" t="n">
-        <v>0.05322793175562494</v>
+        <v>0.06625608802263072</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9370473101812472</v>
+        <v>-0.9276205096637774</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03392235895255154</v>
+        <v>-0.02546358019468165</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2595142414363796</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.01516162504576865</v>
+        <v>-0.005165029606387981</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9556333279655657</v>
+        <v>-0.9440351680702616</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.06114816769368955</v>
+        <v>-0.05478440838627086</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2566842394092756</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.103572705070107</v>
+        <v>-0.09630388476794041</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9938544472785497</v>
+        <v>-0.9802934855389835</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09514225865642049</v>
+        <v>-0.09019511655817243</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2562293439425202</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.134347926929778</v>
+        <v>-0.1293630083726187</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9994705475033505</v>
+        <v>-0.9843025122409365</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1182897838542684</v>
+        <v>-0.1142193704065848</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2574328827054179</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1991282578860291</v>
+        <v>-0.1968837066190544</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.000254409025758</v>
+        <v>-0.9869563084794494</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1228198108853718</v>
+        <v>-0.1215574475500886</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2595619675489927</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2636079511901118</v>
+        <v>-0.2659359254705155</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.051074764395194</v>
+        <v>-1.034098181162405</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1276898260466761</v>
+        <v>-0.1275780706890638</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2613384630320589</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3270031453196183</v>
+        <v>-0.3335101403670754</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.030491316345944</v>
+        <v>-1.01367685708265</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.163342933163258</v>
+        <v>-0.1640276314810238</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2618706985827901</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4592191774897548</v>
+        <v>-0.4636893917942487</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.078849905809665</v>
+        <v>-1.058896852418497</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1889852786683675</v>
+        <v>-0.1880125348514037</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2605310942015127</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5235210066331305</v>
+        <v>-0.5247314273374107</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.126294777173471</v>
+        <v>-1.100288833251341</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2235224062279472</v>
+        <v>-0.2227873392982998</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2562819782444997</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.660207253107761</v>
+        <v>-0.6635363035493118</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.171980682169224</v>
+        <v>-1.144486503167904</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2782589211711786</v>
+        <v>-0.2757609528256744</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2488149925651376</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8203636987001059</v>
+        <v>-0.8261970135636463</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.245690423600614</v>
+        <v>-1.216402649810572</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3458331360677385</v>
+        <v>-0.342365571943513</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.238332810506321</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9360485950487819</v>
+        <v>-0.940655749016829</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.276949656340085</v>
+        <v>-1.246268088618131</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3740017822625356</v>
+        <v>-0.3720767568771848</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2258732730253669</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.03744375880473</v>
+        <v>-1.038862737042582</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.348020554714614</v>
+        <v>-1.314434921713861</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4533118837275133</v>
+        <v>-0.4454040116620986</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2127367947003168</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.163695832524258</v>
+        <v>-1.158318983205895</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.425045967425024</v>
+        <v>-1.387782638747352</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4518370278108546</v>
+        <v>-0.4510232599251421</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.2008927792370668</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.349726791442104</v>
+        <v>-1.338509544174155</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.487687206395427</v>
+        <v>-1.448635791995957</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4894529367716984</v>
+        <v>-0.4877104976044185</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.191990954399449</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.415016317584096</v>
+        <v>-1.401813445194626</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.590961748982208</v>
+        <v>-1.547432250182638</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5358912229074326</v>
+        <v>-0.5320175618499116</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1868261343410935</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.482004210357971</v>
+        <v>-1.467099036288815</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.647321864649061</v>
+        <v>-1.598078676439169</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6035771931616047</v>
+        <v>-0.5967900227105563</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.185895681236066</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.557968734180625</v>
+        <v>-1.543885985102347</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.688714632491466</v>
+        <v>-1.640991946752751</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6075090929266139</v>
+        <v>-0.597233896102763</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1896483543898002</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.645860387894934</v>
+        <v>-1.621431611132347</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.691644669085767</v>
+        <v>-1.644213176884492</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.643823288074142</v>
+        <v>-0.6315994555781209</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1978141576009993</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.705850191655506</v>
+        <v>-1.679161910444292</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.718838997444479</v>
+        <v>-1.673212118165776</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6471916889937255</v>
+        <v>-0.6354038597943047</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.209938681273065</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.720356351877413</v>
+        <v>-1.689283640403816</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.702211059447059</v>
+        <v>-1.6576553001804</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.667227378388762</v>
+        <v>-0.655606395216199</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.225694590790508</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.627743427808763</v>
+        <v>-1.599078178581195</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.779808628108061</v>
+        <v>-1.733064195253234</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6513376553592315</v>
+        <v>-0.6393593698461333</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2441671225441111</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.545103488892673</v>
+        <v>-1.525878419345107</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.783887698660912</v>
+        <v>-1.739054912028905</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6258700259765864</v>
+        <v>-0.6137359125704794</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2641431279647087</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.374839479512896</v>
+        <v>-1.354482690217114</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.720464172187222</v>
+        <v>-1.677324243120174</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5833368812807992</v>
+        <v>-0.5720464421237094</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2850708361792788</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.244533519546458</v>
+        <v>-1.226594423620994</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.681825150797533</v>
+        <v>-1.641893072699695</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6047498374069737</v>
+        <v>-0.5893181539417418</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3062303520467692</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.051509193672673</v>
+        <v>-1.037198211821807</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.635876384608523</v>
+        <v>-1.598611481911729</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.591449375831983</v>
+        <v>-0.5763450883439816</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.3266040712122951</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.9046122851581646</v>
+        <v>-0.8906767068677289</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.586778793167352</v>
+        <v>-1.553186077080552</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5530543274060953</v>
+        <v>-0.539379249280235</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.3453701589540712</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6665867526063926</v>
+        <v>-0.6603347486565863</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.57144469888764</v>
+        <v>-1.539734509669917</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4949431154667952</v>
+        <v>-0.4839312776941756</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3619550841152847</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4479743848871827</v>
+        <v>-0.4445760776042945</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.443791748150155</v>
+        <v>-1.420925185365459</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4082681785332515</v>
+        <v>-0.3978119695104511</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3749597451432259</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2437312377263267</v>
+        <v>-0.2436478147128978</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.386015015274131</v>
+        <v>-1.371483670746283</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3833467337856977</v>
+        <v>-0.373564204946814</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.383909392721839</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.0452490005494313</v>
+        <v>-0.0466231192423268</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.251456055641938</v>
+        <v>-1.239611561754151</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3655823539826982</v>
+        <v>-0.3531570470391505</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3883090017829533</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2302798985960115</v>
+        <v>0.2263794792134284</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.13048009401701</v>
+        <v>-1.122539167550048</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3068431084139991</v>
+        <v>-0.2923338001538494</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3870595936508076</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4723262629931461</v>
+        <v>0.466771549514076</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.98489985249747</v>
+        <v>-0.9807153226634922</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2341863857747594</v>
+        <v>-0.2222679129882706</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.3793147077492472</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6385694405275608</v>
+        <v>0.6349728068353887</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8307231055469464</v>
+        <v>-0.8278465856027694</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2139287596836195</v>
+        <v>-0.200791996097244</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.364598860880626</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8297985975935027</v>
+        <v>0.824607482531453</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7220803707469696</v>
+        <v>-0.7172748903696387</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1441934165335138</v>
+        <v>-0.1347918003219848</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3428355377767666</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9731445189703563</v>
+        <v>0.9669019591352778</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5114199476285708</v>
+        <v>-0.5143712334810095</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1277701010218625</v>
+        <v>-0.1178947050548219</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.3140124334588763</v>
       </c>
       <c r="E91" t="n">
-        <v>1.101233473004442</v>
+        <v>1.092803026590756</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3156843738183451</v>
+        <v>-0.3177998555173732</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.152653769310505</v>
+        <v>-0.1413019434076845</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2797960549849701</v>
       </c>
       <c r="E92" t="n">
-        <v>1.167823925950189</v>
+        <v>1.158246019597075</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1775468817138754</v>
+        <v>-0.1804037264190362</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1140430802649992</v>
+        <v>-0.1025794990045663</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.24238454788451</v>
       </c>
       <c r="E93" t="n">
-        <v>1.188807174856249</v>
+        <v>1.183323292237637</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.07531433978539573</v>
+        <v>-0.07908883763827479</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1085812339140858</v>
+        <v>-0.09804160187785636</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2042764739859178</v>
       </c>
       <c r="E94" t="n">
-        <v>1.18705371755512</v>
+        <v>1.17836513200554</v>
       </c>
       <c r="F94" t="n">
-        <v>0.08499635968083671</v>
+        <v>0.07891277577700956</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06568134276303553</v>
+        <v>-0.05660554850961576</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1695380352755257</v>
       </c>
       <c r="E95" t="n">
-        <v>1.206066294521311</v>
+        <v>1.196035070661261</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1722946081864155</v>
+        <v>0.1639727690920987</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1005143859174197</v>
+        <v>-0.09099629229091449</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1403142827608707</v>
       </c>
       <c r="E96" t="n">
-        <v>1.123438160748631</v>
+        <v>1.114398568935001</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2648091560599847</v>
+        <v>0.2527049490171824</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.118596717582922</v>
+        <v>-0.1113971541220927</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1183183411502436</v>
       </c>
       <c r="E97" t="n">
-        <v>1.07867305693884</v>
+        <v>1.068349065522228</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3169973340458303</v>
+        <v>0.3034166970672479</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08783093983797881</v>
+        <v>-0.07945086203617394</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1024083201950322</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9507147464918215</v>
+        <v>0.9433105605452231</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2948886614680408</v>
+        <v>0.2814890366884081</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1426996723873995</v>
+        <v>-0.1348484650103516</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.09116893812123769</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9268132661348706</v>
+        <v>0.9174431303057675</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2620892510183771</v>
+        <v>0.2519714561066563</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1270129978245168</v>
+        <v>-0.1198260265166579</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.07809585577173514</v>
       </c>
       <c r="E100" t="n">
-        <v>0.863438534253941</v>
+        <v>0.8561177713207715</v>
       </c>
       <c r="F100" t="n">
-        <v>0.259136391146817</v>
+        <v>0.247515407974254</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.125878130038059</v>
+        <v>-0.1192782678624452</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.06266044199045664</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8045780892129017</v>
+        <v>0.7981938676569061</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2229984861408745</v>
+        <v>0.2147396078114098</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1102953407371822</v>
+        <v>-0.104085835303651</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.03639878176124869</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7983276592822167</v>
+        <v>0.7905394126700209</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1852519335929627</v>
+        <v>0.17911325901989</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.09213588213473618</v>
+        <v>-0.08602239186760431</v>
       </c>
     </row>
   </sheetData>
